--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hu269\Desktop\Emory\cs370\CS370_MediTrack\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natehu/Desktop/CS 370/CS370_MediTrack/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D808CF1-7758-42AE-A712-8722A6AC24D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E355B5B0-11F5-A54F-99E3-9C6E07F4D31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D6C69E35-D6ED-4BA1-85DB-EF126B4D362C}"/>
+    <workbookView xWindow="-20" yWindow="740" windowWidth="29400" windowHeight="17240" xr2:uid="{D6C69E35-D6ED-4BA1-85DB-EF126B4D362C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -106,31 +106,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12/2/2025</t>
+    <t>Diatech demo 1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12/2/2026</t>
-  </si>
-  <si>
     <t>12/2/2027</t>
-  </si>
-  <si>
-    <t>12/3/2025</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12/4/2025</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/3/2026</t>
-  </si>
-  <si>
-    <t>12/4/2026</t>
-  </si>
-  <si>
-    <t>12/3/2027</t>
+    <t>12/2/2028</t>
+  </si>
+  <si>
+    <t>12/2/2029</t>
+  </si>
+  <si>
+    <t>12/2/2030</t>
+  </si>
+  <si>
+    <t>12/2/2031</t>
+  </si>
+  <si>
+    <t>12/2/2032</t>
+  </si>
+  <si>
+    <t>12/2/2033</t>
+  </si>
+  <si>
+    <t>12/2/2034</t>
+  </si>
+  <si>
+    <t>12/2/2035</t>
+  </si>
+  <si>
+    <t>12/2/2036</t>
   </si>
 </sst>
 </file>
@@ -138,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -266,12 +274,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -287,7 +295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -606,18 +614,18 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.75" thickBot="1">
+    <row r="1" spans="1:5" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" thickBot="1">
+    <row r="2" spans="1:5" ht="17" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -644,14 +652,14 @@
       <c r="C2" s="3">
         <v>30</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45.75" thickBot="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -661,14 +669,14 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <v>2</v>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30.75" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -678,14 +686,14 @@
       <c r="C4" s="3">
         <v>90</v>
       </c>
-      <c r="D4" s="3">
-        <v>3</v>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30.75" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -695,14 +703,14 @@
       <c r="C5" s="3">
         <v>90</v>
       </c>
-      <c r="D5" s="3">
-        <v>4</v>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" thickBot="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -712,12 +720,14 @@
       <c r="C6" s="3">
         <v>30</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.75" thickBot="1">
+    <row r="7" spans="1:5" ht="33" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -727,14 +737,14 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
-        <v>6</v>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30.75" thickBot="1">
+    <row r="8" spans="1:5" ht="33" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -744,14 +754,14 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
-        <v>7</v>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30.75" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -761,14 +771,14 @@
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3">
-        <v>8</v>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -778,12 +788,14 @@
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="30.75" thickBot="1">
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -793,409 +805,411 @@
       <c r="C11" s="3">
         <v>90</v>
       </c>
-      <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1">
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" thickBot="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="16" thickBot="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1">
+    <row r="14" spans="1:5" ht="16" thickBot="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+    <row r="15" spans="1:5" ht="16" thickBot="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="16" thickBot="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+    <row r="17" spans="1:5" ht="16" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+    <row r="18" spans="1:5" ht="16" thickBot="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+    <row r="19" spans="1:5" ht="16" thickBot="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1">
+    <row r="20" spans="1:5" ht="16" thickBot="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1">
+    <row r="21" spans="1:5" ht="16" thickBot="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+    <row r="22" spans="1:5" ht="16" thickBot="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1">
+    <row r="23" spans="1:5" ht="16" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+    <row r="24" spans="1:5" ht="16" thickBot="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1">
+    <row r="25" spans="1:5" ht="16" thickBot="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1">
+    <row r="26" spans="1:5" ht="16" thickBot="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+    <row r="27" spans="1:5" ht="16" thickBot="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
+    <row r="28" spans="1:5" ht="16" thickBot="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1">
+    <row r="29" spans="1:5" ht="16" thickBot="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1">
+    <row r="30" spans="1:5" ht="16" thickBot="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1">
+    <row r="31" spans="1:5" ht="16" thickBot="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1">
+    <row r="32" spans="1:5" ht="16" thickBot="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1">
+    <row r="33" spans="1:5" ht="16" thickBot="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1">
+    <row r="34" spans="1:5" ht="16" thickBot="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1">
+    <row r="35" spans="1:5" ht="16" thickBot="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1">
+    <row r="36" spans="1:5" ht="16" thickBot="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1">
+    <row r="37" spans="1:5" ht="16" thickBot="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1">
+    <row r="38" spans="1:5" ht="16" thickBot="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+    <row r="39" spans="1:5" ht="16" thickBot="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1">
+    <row r="40" spans="1:5" ht="16" thickBot="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1">
+    <row r="41" spans="1:5" ht="16" thickBot="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1">
+    <row r="42" spans="1:5" ht="16" thickBot="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1">
+    <row r="43" spans="1:5" ht="16" thickBot="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1">
+    <row r="44" spans="1:5" ht="16" thickBot="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1">
+    <row r="45" spans="1:5" ht="16" thickBot="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1">
+    <row r="46" spans="1:5" ht="16" thickBot="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1">
+    <row r="47" spans="1:5" ht="16" thickBot="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1">
+    <row r="48" spans="1:5" ht="16" thickBot="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" thickBot="1">
+    <row r="49" spans="1:5" ht="16" thickBot="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+    <row r="50" spans="1:5" ht="16" thickBot="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1">
+    <row r="51" spans="1:5" ht="16" thickBot="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+    <row r="52" spans="1:5" ht="16" thickBot="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1">
+    <row r="53" spans="1:5" ht="16" thickBot="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1">
+    <row r="54" spans="1:5" ht="16" thickBot="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1">
+    <row r="55" spans="1:5" ht="16" thickBot="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1">
+    <row r="56" spans="1:5" ht="16" thickBot="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1">
+    <row r="57" spans="1:5" ht="16" thickBot="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1">
+    <row r="58" spans="1:5" ht="16" thickBot="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1">
+    <row r="59" spans="1:5" ht="16" thickBot="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1">
+    <row r="60" spans="1:5" ht="16" thickBot="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="15.75" thickBot="1">
+    <row r="61" spans="1:5" ht="16" thickBot="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1">
+    <row r="62" spans="1:5" ht="16" thickBot="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1">
+    <row r="63" spans="1:5" ht="16" thickBot="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1">
+    <row r="64" spans="1:5" ht="16" thickBot="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1">
+    <row r="65" spans="1:5" ht="16" thickBot="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1">
+    <row r="66" spans="1:5" ht="16" thickBot="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1">
+    <row r="67" spans="1:5" ht="16" thickBot="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1">
+    <row r="68" spans="1:5" ht="16" thickBot="1">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1">
+    <row r="69" spans="1:5" ht="16" thickBot="1">
       <c r="A69" s="3"/>
       <c r="B69" s="5"/>
       <c r="C69" s="4"/>
